--- a/豆瓣/豆瓣250.xlsx
+++ b/豆瓣/豆瓣250.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\爬虫\爬虫GitHub\豆瓣\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9380" windowHeight="3260"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="3260" windowWidth="9380" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="1438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1438">
   <si>
     <t>排名</t>
   </si>
@@ -51,33 +46,33 @@
     <t>1</t>
   </si>
   <si>
+    <t>肖申克的救赎</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 弗兰克·德拉邦特 Frank Darabont</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 蒂姆·罗宾斯 Tim Robbins /...</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 美国 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 犯罪 剧情</t>
+  </si>
+  <si>
+    <t>"希望让人自由。"</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>9.6</t>
   </si>
   <si>
-    <t>肖申克的救赎</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 弗兰克·德拉邦特 Frank Darabont</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 蒂姆·罗宾斯 Tim Robbins /...</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t> 美国 </t>
-  </si>
-  <si>
-    <t> 犯罪 剧情</t>
-  </si>
-  <si>
-    <t>"希望让人自由。"</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>霸王别姬</t>
   </si>
   <si>
@@ -90,10 +85,10 @@
     <t>1993</t>
   </si>
   <si>
-    <t> 中国大陆 香港 </t>
-  </si>
-  <si>
-    <t> 剧情 爱情 同性</t>
+    <t xml:space="preserve"> 中国大陆 香港 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 爱情 同性</t>
   </si>
   <si>
     <t>"风华绝代。"</t>
@@ -102,633 +97,633 @@
     <t>3</t>
   </si>
   <si>
+    <t>这个杀手不太冷</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 吕克·贝松 Luc Besson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 让·雷诺 Jean Reno / 娜塔莉·波特曼 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 法国 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 动作 犯罪</t>
+  </si>
+  <si>
+    <t>"怪蜀黍和小萝莉不得不说的故事。"</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>阿甘正传</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 罗伯特·泽米吉斯 Robert Zemeckis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 汤姆·汉克斯 Tom Hanks / ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 爱情</t>
+  </si>
+  <si>
+    <t>"一部美国近现代史。"</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>美丽人生</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 罗伯托·贝尼尼 Roberto Benigni</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 罗伯托·贝尼尼 Roberto Beni...</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 意大利 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 喜剧 爱情 战争</t>
+  </si>
+  <si>
+    <t>"最美的谎言。"</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>泰坦尼克号</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 詹姆斯·卡梅隆 James Cameron</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 莱昂纳多·迪卡普里奥 Leonardo...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 爱情 灾难</t>
+  </si>
+  <si>
+    <t>"失去的才是永恒的。 "</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>千与千寻</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 宫崎骏 Hayao Miyazaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 柊瑠美 Rumi Hîragi / 入野自由 Miy...</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 日本 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 动画 奇幻</t>
+  </si>
+  <si>
+    <t>"最好的宫崎骏，最好的久石让。 "</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>辛德勒的名单</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 史蒂文·斯皮尔伯格 Steven Spielberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 连姆·尼森 Liam Neeson...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 历史 战争</t>
+  </si>
+  <si>
+    <t>"拯救一个人，就是拯救整个世界。"</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>盗梦空间</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 克里斯托弗·诺兰 Christopher Nolan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 莱昂纳多·迪卡普里奥 Le...</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 美国 英国 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 科幻 悬疑 冒险</t>
+  </si>
+  <si>
+    <t>"诺兰给了我们一场无法盗取的梦。"</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>忠犬八公的故事</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 莱塞·霍尔斯道姆 Lasse Hallström</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 理查·基尔 Richard Ger...</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情</t>
+  </si>
+  <si>
+    <t>"永远都不能忘记你所爱的人。"</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>机器人总动员</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 安德鲁·斯坦顿 Andrew Stanton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 本·贝尔特 Ben Burtt / 艾丽...</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 爱情 科幻 动画 冒险</t>
+  </si>
+  <si>
+    <t>"小瓦力，大人生。"</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>三傻大闹宝莱坞</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 拉库马·希拉尼 Rajkumar Hirani</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 阿米尔·汗 Aamir Khan / 卡...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 印度 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 喜剧 爱情 歌舞</t>
+  </si>
+  <si>
+    <t>"英俊版憨豆，高情商版谢耳朵。"</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>海上钢琴师</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 朱塞佩·托纳多雷 Giuseppe Tornatore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 蒂姆·罗斯 Tim Roth / ...</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 音乐</t>
+  </si>
+  <si>
+    <t>"每个人都要走一条自己坚定了的路，就算是粉身碎骨。 "</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>放牛班的春天</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 克里斯托夫·巴拉蒂 Christophe Barratier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 热拉尔·朱尼奥 Gé...</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 法国 瑞士 德国 </t>
+  </si>
+  <si>
+    <t>"天籁一般的童声，是最接近上帝的存在。 "</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>楚门的世界</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 彼得·威尔 Peter Weir</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 金·凯瑞 Jim Carrey / 劳拉·琳妮 Lau...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 科幻</t>
+  </si>
+  <si>
+    <t>"如果再也不能见到你，祝你早安，午安，晚安。"</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>大话西游之大圣娶亲</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 刘镇伟 Jeffrey Lau</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 周星驰 Stephen Chow / 吴孟达 Man Tat Ng...</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 香港 中国大陆 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 喜剧 爱情 奇幻 古装</t>
+  </si>
+  <si>
+    <t>"一生所爱。"</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>星际穿越</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 马修·麦康纳 Matthew Mc...</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 美国 英国 加拿大 冰岛 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 科幻 冒险</t>
+  </si>
+  <si>
+    <t>"爱是一种力量，让我们超越时空感知它的存在。"</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>龙猫</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 日高法子 Noriko Hidaka / 坂本千夏 Ch...</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 动画 奇幻 冒险</t>
+  </si>
+  <si>
+    <t>"人人心中都有个龙猫，童年就永远不会消失。"</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>教父</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 弗朗西斯·福特·科波拉 Francis Ford Coppola</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 马龙·白兰度 M...</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 犯罪</t>
+  </si>
+  <si>
+    <t>"千万不要记恨你的对手，这样会让你失去理智。"</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>熔炉</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 黄东赫 Dong-hyuk Hwang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 孔侑 Yoo Gong / 郑有美 Yu-mi Jeong ...</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 韩国 </t>
+  </si>
+  <si>
+    <t>"我们一路奋战不是为了改变世界，而是为了不让世界改变我们。"</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>无间道</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 刘伟强 / 麦兆辉</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 刘德华 / 梁朝伟 / 黄秋生</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 香港 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 犯罪 悬疑</t>
+  </si>
+  <si>
+    <t>"香港电影史上永不过时的杰作。"</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>疯狂动物城</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 拜伦·霍华德 Byron Howard / 瑞奇·摩尔 Rich Moore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 金妮弗·...</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 喜剧 动画 冒险</t>
+  </si>
+  <si>
+    <t>"迪士尼给我们营造的乌托邦就是这样，永远善良勇敢，永远出乎意料。"</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>当幸福来敲门</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 加布里尔·穆奇诺 Gabriele Muccino</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 威尔·史密斯 Will Smith ...</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 传记 家庭</t>
+  </si>
+  <si>
+    <t>"平民励志片。 "</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>怦然心动</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 罗伯·莱纳 Rob Reiner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 玛德琳·卡罗尔 Madeline Carroll / 卡...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 喜剧 爱情</t>
+  </si>
+  <si>
+    <t>"真正的幸福是来自内心深处。"</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>触不可及</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 奥利维·那卡什 Olivier Nakache / 艾力克·托兰达 Eric Toledano</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 喜剧</t>
+  </si>
+  <si>
+    <t>"满满温情的高雅喜剧。"</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>乱世佳人</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 维克多·弗莱明 Victor Fleming / 乔治·库克 George Cukor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 费...</t>
+  </si>
+  <si>
+    <t>1939</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 历史 爱情 战争</t>
+  </si>
+  <si>
+    <t>"Tomorrow is another day."</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>蝙蝠侠：黑暗骑士</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 克里斯蒂安·贝尔 Christ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 动作 科幻 犯罪 惊悚</t>
+  </si>
+  <si>
+    <t>"无尽的黑暗。"</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>活着</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 张艺谋 Yimou Zhang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 葛优 You Ge / 巩俐 Li Gong / 姜武 Wu Jiang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 历史 家庭</t>
+  </si>
+  <si>
+    <t>"张艺谋最好的电影。"</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>少年派的奇幻漂流</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 李安 Ang Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 苏拉·沙玛 Suraj Sharma / 伊尔凡·可汗 Irrfan...</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 美国 台湾 英国 加拿大 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 奇幻 冒险</t>
+  </si>
+  <si>
+    <t>"瑰丽壮观、无人能及的冒险之旅。"</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>天堂电影院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 安东内拉·阿蒂利 Anton...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 意大利 法国 </t>
+  </si>
+  <si>
+    <t>"那些吻戏，那些青春，都在影院的黑暗里被泪水冲刷得无比清晰。"</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>控方证人</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 比利·怀尔德 Billy Wilder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 泰隆·鲍华 Tyrone Power / 玛琳·...</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>"比利·怀德满分作品。"</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>鬼子来了</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 姜文 Wen Jiang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 姜文 Wen Jiang / 香川照之 Teruyuki Kagawa /...</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中国大陆 </t>
+  </si>
+  <si>
+    <t>"对敌人的仁慈，就是对自己残忍。"</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>9.4</t>
   </si>
   <si>
-    <t>这个杀手不太冷</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 吕克·贝松 Luc Besson</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 让·雷诺 Jean Reno / 娜塔莉·波特曼 ...</t>
-  </si>
-  <si>
-    <t> 法国 </t>
-  </si>
-  <si>
-    <t> 剧情 动作 犯罪</t>
-  </si>
-  <si>
-    <t>"怪蜀黍和小萝莉不得不说的故事。"</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>阿甘正传</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 罗伯特·泽米吉斯 Robert Zemeckis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 汤姆·汉克斯 Tom Hanks / ...</t>
-  </si>
-  <si>
-    <t> 剧情 爱情</t>
-  </si>
-  <si>
-    <t>"一部美国近现代史。"</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>美丽人生</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 罗伯托·贝尼尼 Roberto Benigni</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 罗伯托·贝尼尼 Roberto Beni...</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t> 意大利 </t>
-  </si>
-  <si>
-    <t> 剧情 喜剧 爱情 战争</t>
-  </si>
-  <si>
-    <t>"最美的谎言。"</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>9.3</t>
-  </si>
-  <si>
-    <t>泰坦尼克号</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 詹姆斯·卡梅隆 James Cameron</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 莱昂纳多·迪卡普里奥 Leonardo...</t>
-  </si>
-  <si>
-    <t> 剧情 爱情 灾难</t>
-  </si>
-  <si>
-    <t>"失去的才是永恒的。 "</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>千与千寻</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 宫崎骏 Hayao Miyazaki</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 柊瑠美 Rumi Hîragi / 入野自由 Miy...</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t> 日本 </t>
-  </si>
-  <si>
-    <t> 剧情 动画 奇幻</t>
-  </si>
-  <si>
-    <t>"最好的宫崎骏，最好的久石让。 "</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>辛德勒的名单</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 史蒂文·斯皮尔伯格 Steven Spielberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 连姆·尼森 Liam Neeson...</t>
-  </si>
-  <si>
-    <t> 剧情 历史 战争</t>
-  </si>
-  <si>
-    <t>"拯救一个人，就是拯救整个世界。"</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>盗梦空间</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 克里斯托弗·诺兰 Christopher Nolan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 莱昂纳多·迪卡普里奥 Le...</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t> 美国 英国 </t>
-  </si>
-  <si>
-    <t> 剧情 科幻 悬疑 冒险</t>
-  </si>
-  <si>
-    <t>"诺兰给了我们一场无法盗取的梦。"</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>忠犬八公的故事</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 莱塞·霍尔斯道姆 Lasse Hallström</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 理查·基尔 Richard Ger...</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t> 剧情</t>
-  </si>
-  <si>
-    <t>"永远都不能忘记你所爱的人。"</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>机器人总动员</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 安德鲁·斯坦顿 Andrew Stanton</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 本·贝尔特 Ben Burtt / 艾丽...</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t> 爱情 科幻 动画 冒险</t>
-  </si>
-  <si>
-    <t>"小瓦力，大人生。"</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>三傻大闹宝莱坞</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 拉库马·希拉尼 Rajkumar Hirani</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 阿米尔·汗 Aamir Khan / 卡...</t>
-  </si>
-  <si>
-    <t> 印度 </t>
-  </si>
-  <si>
-    <t> 剧情 喜剧 爱情 歌舞</t>
-  </si>
-  <si>
-    <t>"英俊版憨豆，高情商版谢耳朵。"</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>海上钢琴师</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 朱塞佩·托纳多雷 Giuseppe Tornatore</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 蒂姆·罗斯 Tim Roth / ...</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t> 剧情 音乐</t>
-  </si>
-  <si>
-    <t>"每个人都要走一条自己坚定了的路，就算是粉身碎骨。 "</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>放牛班的春天</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 克里斯托夫·巴拉蒂 Christophe Barratier</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 热拉尔·朱尼奥 Gé...</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t> 法国 瑞士 德国 </t>
-  </si>
-  <si>
-    <t>"天籁一般的童声，是最接近上帝的存在。 "</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>楚门的世界</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 彼得·威尔 Peter Weir</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 金·凯瑞 Jim Carrey / 劳拉·琳妮 Lau...</t>
-  </si>
-  <si>
-    <t> 剧情 科幻</t>
-  </si>
-  <si>
-    <t>"如果再也不能见到你，祝你早安，午安，晚安。"</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>大话西游之大圣娶亲</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 刘镇伟 Jeffrey Lau</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 周星驰 Stephen Chow / 吴孟达 Man Tat Ng...</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t> 香港 中国大陆 </t>
-  </si>
-  <si>
-    <t> 喜剧 爱情 奇幻 古装</t>
-  </si>
-  <si>
-    <t>"一生所爱。"</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>星际穿越</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 马修·麦康纳 Matthew Mc...</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t> 美国 英国 加拿大 冰岛 </t>
-  </si>
-  <si>
-    <t> 剧情 科幻 冒险</t>
-  </si>
-  <si>
-    <t>"爱是一种力量，让我们超越时空感知它的存在。"</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>龙猫</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 日高法子 Noriko Hidaka / 坂本千夏 Ch...</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t> 动画 奇幻 冒险</t>
-  </si>
-  <si>
-    <t>"人人心中都有个龙猫，童年就永远不会消失。"</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>教父</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 弗朗西斯·福特·科波拉 Francis Ford Coppola</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 马龙·白兰度 M...</t>
-  </si>
-  <si>
-    <t>1972</t>
-  </si>
-  <si>
-    <t> 剧情 犯罪</t>
-  </si>
-  <si>
-    <t>"千万不要记恨你的对手，这样会让你失去理智。"</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>熔炉</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 黄东赫 Dong-hyuk Hwang</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 孔侑 Yoo Gong / 郑有美 Yu-mi Jeong ...</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t> 韩国 </t>
-  </si>
-  <si>
-    <t>"我们一路奋战不是为了改变世界，而是为了不让世界改变我们。"</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>无间道</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 刘伟强 / 麦兆辉</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 刘德华 / 梁朝伟 / 黄秋生</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t> 香港 </t>
-  </si>
-  <si>
-    <t> 剧情 犯罪 悬疑</t>
-  </si>
-  <si>
-    <t>"香港电影史上永不过时的杰作。"</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>疯狂动物城</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 拜伦·霍华德 Byron Howard / 瑞奇·摩尔 Rich Moore</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 金妮弗·...</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t> 喜剧 动画 冒险</t>
-  </si>
-  <si>
-    <t>"迪士尼给我们营造的乌托邦就是这样，永远善良勇敢，永远出乎意料。"</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>当幸福来敲门</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 加布里尔·穆奇诺 Gabriele Muccino</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 威尔·史密斯 Will Smith ...</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t> 剧情 传记 家庭</t>
-  </si>
-  <si>
-    <t>"平民励志片。 "</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>怦然心动</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 罗伯·莱纳 Rob Reiner</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 玛德琳·卡罗尔 Madeline Carroll / 卡...</t>
-  </si>
-  <si>
-    <t> 剧情 喜剧 爱情</t>
-  </si>
-  <si>
-    <t>"真正的幸福是来自内心深处。"</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>触不可及</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 奥利维·那卡什 Olivier Nakache / 艾力克·托兰达 Eric Toledano</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t> 剧情 喜剧</t>
-  </si>
-  <si>
-    <t>"满满温情的高雅喜剧。"</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>乱世佳人</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 维克多·弗莱明 Victor Fleming / 乔治·库克 George Cukor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 费...</t>
-  </si>
-  <si>
-    <t>1939</t>
-  </si>
-  <si>
-    <t> 剧情 历史 爱情 战争</t>
-  </si>
-  <si>
-    <t>"Tomorrow is another day."</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>蝙蝠侠：黑暗骑士</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 克里斯蒂安·贝尔 Christ...</t>
-  </si>
-  <si>
-    <t> 剧情 动作 科幻 犯罪 惊悚</t>
-  </si>
-  <si>
-    <t>"无尽的黑暗。"</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>活着</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 张艺谋 Yimou Zhang</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 葛优 You Ge / 巩俐 Li Gong / 姜武 Wu Jiang</t>
-  </si>
-  <si>
-    <t> 剧情 历史 家庭</t>
-  </si>
-  <si>
-    <t>"张艺谋最好的电影。"</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>少年派的奇幻漂流</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 李安 Ang Lee</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 苏拉·沙玛 Suraj Sharma / 伊尔凡·可汗 Irrfan...</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t> 美国 台湾 英国 加拿大 </t>
-  </si>
-  <si>
-    <t> 剧情 奇幻 冒险</t>
-  </si>
-  <si>
-    <t>"瑰丽壮观、无人能及的冒险之旅。"</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>天堂电影院</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 安东内拉·阿蒂利 Anton...</t>
-  </si>
-  <si>
-    <t> 意大利 法国 </t>
-  </si>
-  <si>
-    <t>"那些吻戏，那些青春，都在影院的黑暗里被泪水冲刷得无比清晰。"</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>控方证人</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 比利·怀尔德 Billy Wilder</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 泰隆·鲍华 Tyrone Power / 玛琳·...</t>
-  </si>
-  <si>
-    <t>1957</t>
-  </si>
-  <si>
-    <t>"比利·怀德满分作品。"</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>鬼子来了</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 姜文 Wen Jiang</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 姜文 Wen Jiang / 香川照之 Teruyuki Kagawa /...</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t> 中国大陆 </t>
-  </si>
-  <si>
-    <t>"对敌人的仁慈，就是对自己残忍。"</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>十二怒汉</t>
   </si>
   <si>
@@ -756,10 +751,10 @@
     <t>2003</t>
   </si>
   <si>
-    <t> 美国 新西兰 </t>
-  </si>
-  <si>
-    <t> 剧情 动作 奇幻 冒险</t>
+    <t xml:space="preserve"> 美国 新西兰 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 动作 奇幻 冒险</t>
   </si>
   <si>
     <t>"史诗的终章。"</t>
@@ -792,7 +787,7 @@
     <t xml:space="preserve"> 阿米尔·汗 Aamir Khan / 法缇玛...</t>
   </si>
   <si>
-    <t> 剧情 传记 运动 家庭</t>
+    <t xml:space="preserve"> 剧情 传记 运动 家庭</t>
   </si>
   <si>
     <t>"你不是在为你一个人战斗，你要让千千万万的女性看到女生并不是只能相夫教子。"</t>
@@ -813,7 +808,7 @@
     <t xml:space="preserve"> 爱德...</t>
   </si>
   <si>
-    <t> 剧情 喜剧 动画 冒险</t>
+    <t xml:space="preserve"> 剧情 喜剧 动画 冒险</t>
   </si>
   <si>
     <t>"最后那些最无聊的事情，才是最值得怀念的。 "</t>
@@ -843,10 +838,10 @@
     <t>1999</t>
   </si>
   <si>
-    <t> 美国 德国 </t>
-  </si>
-  <si>
-    <t> 剧情 动作 悬疑 惊悚</t>
+    <t xml:space="preserve"> 美国 德国 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 动作 悬疑 惊悚</t>
   </si>
   <si>
     <t>"邪恶与平庸蛰伏于同一个母体，在特定的时间互相对峙。"</t>
@@ -867,7 +862,7 @@
     <t>1953</t>
   </si>
   <si>
-    <t> 喜剧 剧情 爱情</t>
+    <t xml:space="preserve"> 喜剧 剧情 爱情</t>
   </si>
   <si>
     <t>"爱情哪怕只有一天。"</t>
@@ -912,10 +907,10 @@
     <t xml:space="preserve"> 弗洛里安·亨克尔·冯·多纳斯马尔克 Florian Henckel von Donnersmarck</t>
   </si>
   <si>
-    <t> 德国 </t>
-  </si>
-  <si>
-    <t> 剧情 悬疑</t>
+    <t xml:space="preserve"> 德国 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 悬疑</t>
   </si>
   <si>
     <t>"别样人生。"</t>
@@ -951,10 +946,10 @@
     <t xml:space="preserve"> Jason Flemyng / Dexter Fletcher / Nick Moran</t>
   </si>
   <si>
-    <t> 英国 </t>
-  </si>
-  <si>
-    <t> 剧情 喜剧 犯罪</t>
+    <t xml:space="preserve"> 英国 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 喜剧 犯罪</t>
   </si>
   <si>
     <t>"4个臭皮匠顶个诸葛亮，盖·里奇果然不是盖的。"</t>
@@ -1008,10 +1003,10 @@
     <t>1987</t>
   </si>
   <si>
-    <t> 英国 意大利 中国大陆 法国 美国 </t>
-  </si>
-  <si>
-    <t> 剧情 传记 历史</t>
+    <t xml:space="preserve"> 英国 意大利 中国大陆 法国 美国 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 传记 历史</t>
   </si>
   <si>
     <t>"“不要跟我比惨，我比你更惨”再适合这部电影不过了。"</t>
@@ -1047,10 +1042,10 @@
     <t>2005</t>
   </si>
   <si>
-    <t> 美国 英国 德国 </t>
-  </si>
-  <si>
-    <t> 剧情 动作 科幻 惊悚</t>
+    <t xml:space="preserve"> 美国 英国 德国 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 动作 科幻 惊悚</t>
   </si>
   <si>
     <t>"一张面具背后的理想与革命。"</t>
@@ -1092,7 +1087,7 @@
     <t>指环王1：魔戒再现</t>
   </si>
   <si>
-    <t> 新西兰 美国 </t>
+    <t xml:space="preserve"> 新西兰 美国 </t>
   </si>
   <si>
     <t>"传说的开始。"</t>
@@ -1110,7 +1105,7 @@
     <t xml:space="preserve"> Richard O'Barry / 路易·西霍...</t>
   </si>
   <si>
-    <t> 纪录片</t>
+    <t xml:space="preserve"> 纪录片</t>
   </si>
   <si>
     <t>"海豚的微笑，是世界上最高明的伪装。"</t>
@@ -1131,7 +1126,7 @@
     <t>2017</t>
   </si>
   <si>
-    <t> 喜剧 动画 奇幻 音乐</t>
+    <t xml:space="preserve"> 喜剧 动画 奇幻 音乐</t>
   </si>
   <si>
     <t>"死亡不是真的逝去，遗忘才是永恒的消亡。"</t>
@@ -1146,10 +1141,10 @@
     <t xml:space="preserve"> 郎雄 Sihung Lung / 杨贵媚 Kuei-Mei Yang / 吴...</t>
   </si>
   <si>
-    <t> 台湾 美国 </t>
-  </si>
-  <si>
-    <t> 剧情 家庭</t>
+    <t xml:space="preserve"> 台湾 美国 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 家庭</t>
   </si>
   <si>
     <t>"人生不能像做菜，把所有的料都准备好了才下锅。"</t>
@@ -1167,7 +1162,7 @@
     <t xml:space="preserve"> 罗素·克劳 Russell Crowe / 艾德·哈...</t>
   </si>
   <si>
-    <t> 传记 剧情</t>
+    <t xml:space="preserve"> 传记 剧情</t>
   </si>
   <si>
     <t>"爱是一切逻辑和原由。"</t>
@@ -1185,7 +1180,7 @@
     <t xml:space="preserve"> 乔纳森·泰勒·托马...</t>
   </si>
   <si>
-    <t> 剧情 动画 冒险 歌舞 家庭</t>
+    <t xml:space="preserve"> 剧情 动画 冒险 歌舞 家庭</t>
   </si>
   <si>
     <t>"动物版《哈姆雷特》。"</t>
@@ -1218,10 +1213,10 @@
     <t xml:space="preserve"> 艾德里安·布洛迪 Adrien Brod...</t>
   </si>
   <si>
-    <t> 法国 德国 英国 波兰 </t>
-  </si>
-  <si>
-    <t> 剧情 传记 历史 战争 音乐</t>
+    <t xml:space="preserve"> 法国 德国 英国 波兰 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 传记 历史 战争 音乐</t>
   </si>
   <si>
     <t>"音乐能化解仇恨。"</t>
@@ -1242,7 +1237,7 @@
     <t>1984</t>
   </si>
   <si>
-    <t> 意大利 美国 </t>
+    <t xml:space="preserve"> 意大利 美国 </t>
   </si>
   <si>
     <t>"往事如烟，无处祭奠。"</t>
@@ -1257,7 +1252,7 @@
     <t xml:space="preserve"> 凯特·布兰切特 Cate Blanchett / ...</t>
   </si>
   <si>
-    <t> 剧情 爱情 奇幻</t>
+    <t xml:space="preserve"> 剧情 爱情 奇幻</t>
   </si>
   <si>
     <t>"在时间之河里感受溺水之苦。"</t>
@@ -1275,10 +1270,10 @@
     <t xml:space="preserve"> 法拉赫阿米尔·哈什米安 Amir Fa...</t>
   </si>
   <si>
-    <t> 伊朗 </t>
-  </si>
-  <si>
-    <t> 剧情 儿童 家庭</t>
+    <t xml:space="preserve"> 伊朗 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 儿童 家庭</t>
   </si>
   <si>
     <t>"奔跑的孩子是天使。"</t>
@@ -1293,10 +1288,10 @@
     <t xml:space="preserve"> 安迪·沃卓斯基 Andy Wachowski / 拉娜·沃卓斯基 Lana Wachowski</t>
   </si>
   <si>
-    <t> 美国 澳大利亚 </t>
-  </si>
-  <si>
-    <t> 动作 科幻</t>
+    <t xml:space="preserve"> 美国 澳大利亚 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 动作 科幻</t>
   </si>
   <si>
     <t>"视觉革命。"</t>
@@ -1314,10 +1309,10 @@
     <t xml:space="preserve"> 马里奥·卡萨斯 Mario Casas / 阿...</t>
   </si>
   <si>
-    <t> 西班牙 </t>
-  </si>
-  <si>
-    <t> 剧情 犯罪 悬疑 惊悚</t>
+    <t xml:space="preserve"> 西班牙 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 犯罪 悬疑 惊悚</t>
   </si>
   <si>
     <t>"你以为你以为的就是你以为的。"</t>
@@ -1332,7 +1327,7 @@
     <t xml:space="preserve"> 莫妮卡·贝鲁奇 Monica ...</t>
   </si>
   <si>
-    <t> 剧情 战争 情色</t>
+    <t xml:space="preserve"> 剧情 战争 情色</t>
   </si>
   <si>
     <t>"美丽无罪。"</t>
@@ -1350,7 +1345,7 @@
     <t xml:space="preserve"> 姜文 Wen Jiang / 葛优 You Ge / 周润发 Yun-F...</t>
   </si>
   <si>
-    <t> 剧情 喜剧 动作 西部</t>
+    <t xml:space="preserve"> 剧情 喜剧 动作 西部</t>
   </si>
   <si>
     <t>"你给我翻译翻译，神马叫做TMD的惊喜。"</t>
@@ -1404,7 +1399,7 @@
     <t xml:space="preserve"> Daniel Radcliffe / Emma Watson / Rupert Grint</t>
   </si>
   <si>
-    <t> 奇幻 冒险</t>
+    <t xml:space="preserve"> 奇幻 冒险</t>
   </si>
   <si>
     <t>"童话世界的开端。"</t>
@@ -1419,7 +1414,7 @@
     <t xml:space="preserve"> 休·杰克曼 Hugh Jackman...</t>
   </si>
   <si>
-    <t> 剧情 悬疑 惊悚</t>
+    <t xml:space="preserve"> 剧情 悬疑 惊悚</t>
   </si>
   <si>
     <t>"孪生蝙蝠侠大战克隆金刚狼。"</t>
@@ -1449,7 +1444,7 @@
     <t xml:space="preserve"> 中谷美纪 Miki Nakatani / 瑛太 E...</t>
   </si>
   <si>
-    <t> 剧情 歌舞</t>
+    <t xml:space="preserve"> 剧情 歌舞</t>
   </si>
   <si>
     <t>"以戏谑来戏谑戏谑。"</t>
@@ -1470,7 +1465,7 @@
     <t>1965</t>
   </si>
   <si>
-    <t> 剧情 传记 爱情 歌舞</t>
+    <t xml:space="preserve"> 剧情 传记 爱情 歌舞</t>
   </si>
   <si>
     <t>"用音乐化解仇恨，让歌声串起美好。"</t>
@@ -1503,10 +1498,10 @@
     <t xml:space="preserve"> 奥黛丽·塔图 Audrey Tau...</t>
   </si>
   <si>
-    <t> 法国 德国 </t>
-  </si>
-  <si>
-    <t> 喜剧 爱情</t>
+    <t xml:space="preserve"> 法国 德国 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 喜剧 爱情</t>
   </si>
   <si>
     <t>"法式小清新。 "</t>
@@ -1527,7 +1522,7 @@
     <t>1991</t>
   </si>
   <si>
-    <t> 剧情 犯罪 惊悚</t>
+    <t xml:space="preserve"> 剧情 犯罪 惊悚</t>
   </si>
   <si>
     <t>"安东尼·霍普金斯的顶级表演。"</t>
@@ -1545,7 +1540,7 @@
     <t xml:space="preserve"> 梅尔·吉布森 Mel Gibson / 苏菲·玛...</t>
   </si>
   <si>
-    <t> 动作 传记 剧情 历史 战争</t>
+    <t xml:space="preserve"> 动作 传记 剧情 历史 战争</t>
   </si>
   <si>
     <t>"史诗大片的典范。"</t>
@@ -1566,7 +1561,7 @@
     <t>1990</t>
   </si>
   <si>
-    <t> 剧情 奇幻 爱情</t>
+    <t xml:space="preserve"> 剧情 奇幻 爱情</t>
   </si>
   <si>
     <t>"浪漫忧郁的成人童话。"</t>
@@ -1581,10 +1576,10 @@
     <t xml:space="preserve"> 埃里克·布雷斯 Eric Bress / J·麦基·格鲁伯 J. Mackye Gruber</t>
   </si>
   <si>
-    <t> 美国 加拿大 </t>
-  </si>
-  <si>
-    <t> 剧情 悬疑 科幻 惊悚</t>
+    <t xml:space="preserve"> 美国 加拿大 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 悬疑 科幻 惊悚</t>
   </si>
   <si>
     <t>"人的命运被自己瞬间的抉择改变。"</t>
@@ -1599,7 +1594,7 @@
     <t xml:space="preserve"> 莱昂纳多·迪卡普里奥 L...</t>
   </si>
   <si>
-    <t> 传记 犯罪 剧情</t>
+    <t xml:space="preserve"> 传记 犯罪 剧情</t>
   </si>
   <si>
     <t>"骗子大师和执著警探的你追我跑故事。 "</t>
@@ -1617,7 +1612,7 @@
     <t xml:space="preserve"> 张国荣 Leslie Cheung / 梁朝伟 Tony Leu...</t>
   </si>
   <si>
-    <t> 香港 日本 韩国 </t>
+    <t xml:space="preserve"> 香港 日本 韩国 </t>
   </si>
   <si>
     <t>"爱情纠缠，男女一致。"</t>
@@ -1650,10 +1645,10 @@
     <t xml:space="preserve"> 拉尔夫·费因斯 Ralph Fiennes / ...</t>
   </si>
   <si>
-    <t> 美国 德国 英国 </t>
-  </si>
-  <si>
-    <t> 剧情 喜剧 冒险</t>
+    <t xml:space="preserve"> 美国 德国 英国 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 喜剧 冒险</t>
   </si>
   <si>
     <t>"小清新的故事里注入了大历史的情怀。"</t>
@@ -1701,10 +1696,10 @@
     <t xml:space="preserve"> 阿萨·巴特菲尔德 Asa Butterfield ...</t>
   </si>
   <si>
-    <t> 英国 美国 </t>
-  </si>
-  <si>
-    <t> 剧情 战争</t>
+    <t xml:space="preserve"> 英国 美国 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 战争</t>
   </si>
   <si>
     <t>"尽管有些不切实际的幻想，这部电影依旧是一部感人肺腑的佳作。"</t>
@@ -1731,7 +1726,7 @@
     <t xml:space="preserve"> 萨姆·沃辛顿 Sam Worthington ...</t>
   </si>
   <si>
-    <t> 动作 战争 科幻 冒险</t>
+    <t xml:space="preserve"> 动作 战争 科幻 冒险</t>
   </si>
   <si>
     <t>"绝对意义上的美轮美奂。"</t>
@@ -1791,10 +1786,10 @@
     <t xml:space="preserve"> 托妮·科莱特 Toni Collette / 菲利...</t>
   </si>
   <si>
-    <t> 澳大利亚 </t>
-  </si>
-  <si>
-    <t> 剧情 喜剧 动画</t>
+    <t xml:space="preserve"> 澳大利亚 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 喜剧 动画</t>
   </si>
   <si>
     <t>"你是我最好的朋友，你是我唯一的朋友 。"</t>
@@ -1812,7 +1807,7 @@
     <t xml:space="preserve"> 麦斯·米科尔森 Mads Mik...</t>
   </si>
   <si>
-    <t> 丹麦 瑞典 </t>
+    <t xml:space="preserve"> 丹麦 瑞典 </t>
   </si>
   <si>
     <t>"人言可畏。"</t>
@@ -1830,7 +1825,7 @@
     <t xml:space="preserve"> 约翰尼·德普 Johnny Depp / ...</t>
   </si>
   <si>
-    <t> 动作 冒险 奇幻</t>
+    <t xml:space="preserve"> 动作 冒险 奇幻</t>
   </si>
   <si>
     <t>"约翰尼·德普的独角戏。"</t>
@@ -1845,7 +1840,7 @@
     <t xml:space="preserve"> 希斯·莱杰 Heath Ledger / 杰克·吉伦哈尔 Jake...</t>
   </si>
   <si>
-    <t> 剧情 爱情 同性 家庭</t>
+    <t xml:space="preserve"> 剧情 爱情 同性 家庭</t>
   </si>
   <si>
     <t>"每个人心中都有一座断背山。"</t>
@@ -1890,7 +1885,7 @@
     <t xml:space="preserve"> 松隆子 Takako Matsu / 冈田将生 ...</t>
   </si>
   <si>
-    <t> 剧情 惊悚</t>
+    <t xml:space="preserve"> 剧情 惊悚</t>
   </si>
   <si>
     <t>"没有一人完全善，也没有一人完全恶。"</t>
@@ -1923,7 +1918,7 @@
     <t xml:space="preserve"> 伊万·麦克格雷格 Ewan McGregor / 阿...</t>
   </si>
   <si>
-    <t> 剧情 家庭 奇幻 冒险</t>
+    <t xml:space="preserve"> 剧情 家庭 奇幻 冒险</t>
   </si>
   <si>
     <t>"抱着梦想而活着的人是幸福的，怀抱梦想而死去的人是不朽的。"</t>
@@ -1941,10 +1936,10 @@
     <t xml:space="preserve"> 吴念真 / 李凯莉 Kelly Lee / 金燕玲 Elai...</t>
   </si>
   <si>
-    <t> 台湾 日本 </t>
-  </si>
-  <si>
-    <t> 剧情 爱情 家庭</t>
+    <t xml:space="preserve"> 台湾 日本 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 爱情 家庭</t>
   </si>
   <si>
     <t>"我们都曾经是一一。"</t>
@@ -1971,7 +1966,7 @@
     <t xml:space="preserve"> 梁朝伟 Tony Leung Chiu Wai / 林青霞 Bri...</t>
   </si>
   <si>
-    <t> 喜剧 奇幻 武侠 古装</t>
+    <t xml:space="preserve"> 喜剧 奇幻 武侠 古装</t>
   </si>
   <si>
     <t>"百看不厌。 "</t>
@@ -2022,7 +2017,7 @@
     <t xml:space="preserve"> 伊桑·霍克 Ethan Hawke ...</t>
   </si>
   <si>
-    <t> 美国 奥地利 瑞士 </t>
+    <t xml:space="preserve"> 美国 奥地利 瑞士 </t>
   </si>
   <si>
     <t>"缘分是个连绵词，最美不过一瞬。"</t>
@@ -2055,7 +2050,7 @@
     <t xml:space="preserve"> 本名阳子 Youko Honna / 小林桂树 K...</t>
   </si>
   <si>
-    <t> 剧情 爱情 动画</t>
+    <t xml:space="preserve"> 剧情 爱情 动画</t>
   </si>
   <si>
     <t>"少女情怀总是诗。"</t>
@@ -2088,7 +2083,7 @@
     <t xml:space="preserve"> 林原惠美 Megumi Hayashibara / 江守彻 Toru...</t>
   </si>
   <si>
-    <t> 动画 悬疑 科幻 惊悚</t>
+    <t xml:space="preserve"> 动画 悬疑 科幻 惊悚</t>
   </si>
   <si>
     <t>"梦的勾结。"</t>
@@ -2106,7 +2101,7 @@
     <t xml:space="preserve"> 张国荣 Leslie Cheung / 王祖贤 Joey W...</t>
   </si>
   <si>
-    <t> 爱情 奇幻 武侠 古装</t>
+    <t xml:space="preserve"> 爱情 奇幻 武侠 古装</t>
   </si>
   <si>
     <t>"两张绝世的脸。 "</t>
@@ -2124,7 +2119,7 @@
     <t xml:space="preserve"> 艾米·汉莫 Armie Hammer / ...</t>
   </si>
   <si>
-    <t> 意大利 法国 巴西 美国 荷兰 德国 </t>
+    <t xml:space="preserve"> 意大利 法国 巴西 美国 荷兰 德国 </t>
   </si>
   <si>
     <t>"沉醉在电影的情感和视听氛围中无法自拔。"</t>
@@ -2169,7 +2164,7 @@
     <t xml:space="preserve"> Alexandre Rodrigues / Lea...</t>
   </si>
   <si>
-    <t> 巴西 法国 </t>
+    <t xml:space="preserve"> 巴西 法国 </t>
   </si>
   <si>
     <t>"被上帝抛弃了的上帝之城。"</t>
@@ -2235,7 +2230,7 @@
     <t xml:space="preserve"> 丹尼尔·雷德克里夫 Daniel Radcliffe...</t>
   </si>
   <si>
-    <t> 剧情 悬疑 奇幻 冒险</t>
+    <t xml:space="preserve"> 剧情 悬疑 奇幻 冒险</t>
   </si>
   <si>
     <t>"10年的完美句点。"</t>
@@ -2265,7 +2260,7 @@
     <t xml:space="preserve"> 宋康昊 Kang-ho Song / 金相庆 Sang-kyun...</t>
   </si>
   <si>
-    <t> 犯罪 剧情 悬疑 惊悚</t>
+    <t xml:space="preserve"> 犯罪 剧情 悬疑 惊悚</t>
   </si>
   <si>
     <t>"关于连环杀人悬案的集体回忆。"</t>
@@ -2283,7 +2278,7 @@
     <t xml:space="preserve"> 皮艾尔·柯芬 Pierre Coffin / 克里斯·雷纳德 Chris Renaud</t>
   </si>
   <si>
-    <t> 美国 法国 </t>
+    <t xml:space="preserve"> 美国 法国 </t>
   </si>
   <si>
     <t>"Mr. I Don't Care其实也有Care的时候。"</t>
@@ -2316,7 +2311,7 @@
     <t xml:space="preserve"> 柳承龙 Seung-yong Ryoo / 朴信惠 Shi...</t>
   </si>
   <si>
-    <t> 剧情 喜剧 家庭</t>
+    <t xml:space="preserve"> 剧情 喜剧 家庭</t>
   </si>
   <si>
     <t>"《我是山姆》的《美丽人生》。"</t>
@@ -2334,7 +2329,7 @@
     <t xml:space="preserve"> 佐仓绫音 Ayane Sakura / 内山昂辉 K...</t>
   </si>
   <si>
-    <t> 剧情 爱情 动画 奇幻</t>
+    <t xml:space="preserve"> 剧情 爱情 动画 奇幻</t>
   </si>
   <si>
     <t>"触不到的恋人。"</t>
@@ -2352,7 +2347,7 @@
     <t xml:space="preserve"> 周星驰 Stephen Chow / 巩俐 Li Gong / 陈...</t>
   </si>
   <si>
-    <t> 喜剧 爱情 古装</t>
+    <t xml:space="preserve"> 喜剧 爱情 古装</t>
   </si>
   <si>
     <t>"华太师是黄霑，吴镇宇四大才子之一。"</t>
@@ -2370,7 +2365,7 @@
     <t xml:space="preserve"> 约...</t>
   </si>
   <si>
-    <t> 儿童 喜剧 动画 奇幻 冒险</t>
+    <t xml:space="preserve"> 儿童 喜剧 动画 奇幻 冒险</t>
   </si>
   <si>
     <t>"不要给它起名字，起了名字就有感情了。"</t>
@@ -2388,7 +2383,7 @@
     <t xml:space="preserve"> 斯科特...</t>
   </si>
   <si>
-    <t> 喜剧 动作 科幻 动画 冒险</t>
+    <t xml:space="preserve"> 喜剧 动作 科幻 动画 冒险</t>
   </si>
   <si>
     <t>"Balalala~~~"</t>
@@ -2433,7 +2428,7 @@
     <t>1954</t>
   </si>
   <si>
-    <t> 动作 冒险 剧情</t>
+    <t xml:space="preserve"> 动作 冒险 剧情</t>
   </si>
   <si>
     <t>"时代悲歌。"</t>
@@ -2451,7 +2446,7 @@
     <t xml:space="preserve"> 雷·沃纳尔 Leigh Whannell / 加利·艾...</t>
   </si>
   <si>
-    <t> 悬疑 惊悚 恐怖</t>
+    <t xml:space="preserve"> 悬疑 惊悚 恐怖</t>
   </si>
   <si>
     <t>"真相就在眼前。"</t>
@@ -2469,7 +2464,7 @@
     <t xml:space="preserve"> 休·格兰特 Hugh Grant / 柯林...</t>
   </si>
   <si>
-    <t> 英国 美国 法国 </t>
+    <t xml:space="preserve"> 英国 美国 法国 </t>
   </si>
   <si>
     <t>"爱，是个动词。"</t>
@@ -2490,7 +2485,7 @@
     <t>2007</t>
   </si>
   <si>
-    <t> 动作 悬疑 惊悚</t>
+    <t xml:space="preserve"> 动作 悬疑 惊悚</t>
   </si>
   <si>
     <t>"像吃了苏打饼一样干脆的电影。"</t>
@@ -2517,7 +2512,7 @@
     <t xml:space="preserve"> 赵文瑄 Winston Chao / 郎雄 Sihung Lung / 归亚...</t>
   </si>
   <si>
-    <t> 剧情 喜剧 爱情 同性 家庭</t>
+    <t xml:space="preserve"> 剧情 喜剧 爱情 同性 家庭</t>
   </si>
   <si>
     <t>"中国家庭的喜怒哀乐忍。"</t>
@@ -2535,7 +2530,7 @@
     <t xml:space="preserve"> 辰己努 / 白石绫乃 / 志乃原良子</t>
   </si>
   <si>
-    <t> 动画 剧情 战争</t>
+    <t xml:space="preserve"> 动画 剧情 战争</t>
   </si>
   <si>
     <t>"幸福是生生不息，却难以触及的远。 "</t>
@@ -2565,10 +2560,10 @@
     <t xml:space="preserve"> 张国荣 Leslie Cheung / 林青霞 Brigitte...</t>
   </si>
   <si>
-    <t> 香港 台湾 </t>
-  </si>
-  <si>
-    <t> 剧情 动作 爱情 武侠 古装</t>
+    <t xml:space="preserve"> 香港 台湾 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 动作 爱情 武侠 古装</t>
   </si>
   <si>
     <t>"电影诗。"</t>
@@ -2601,7 +2596,7 @@
     <t xml:space="preserve"> 周润发 Yun-Fat Chow / 狄龙 Lung Ti / 张国...</t>
   </si>
   <si>
-    <t> 动作 犯罪</t>
+    <t xml:space="preserve"> 动作 犯罪</t>
   </si>
   <si>
     <t>"英雄泪短，兄弟情长。 "</t>
@@ -2643,7 +2638,7 @@
     <t xml:space="preserve"> 安德鲁·加菲尔德 Andrew Garfield /...</t>
   </si>
   <si>
-    <t> 剧情 传记 历史 战争</t>
+    <t xml:space="preserve"> 剧情 传记 历史 战争</t>
   </si>
   <si>
     <t>"优秀的战争片不会美化战场，不会粉饰死亡，不会矮化敌人，不会无视常识，最重要的，不会宣扬战争。"</t>
@@ -2676,7 +2671,7 @@
     <t xml:space="preserve"> 凯拉·奈特莉 Keira Knightley / 马修·...</t>
   </si>
   <si>
-    <t> 法国 英国 美国 </t>
+    <t xml:space="preserve"> 法国 英国 美国 </t>
   </si>
   <si>
     <t>"爱是摈弃傲慢与偏见之后的曙光。"</t>
@@ -2691,7 +2686,7 @@
     <t xml:space="preserve"> 多姆纳尔·格里森 Domhnall Gl...</t>
   </si>
   <si>
-    <t> 喜剧 爱情 奇幻</t>
+    <t xml:space="preserve"> 喜剧 爱情 奇幻</t>
   </si>
   <si>
     <t>"把每天当作最后一天般珍惜度过，积极拥抱生活，就是幸福。"</t>
@@ -2724,7 +2719,7 @@
     <t xml:space="preserve"> 达里奥·葛兰帝内提 Darío...</t>
   </si>
   <si>
-    <t> 阿根廷 西班牙 </t>
+    <t xml:space="preserve"> 阿根廷 西班牙 </t>
   </si>
   <si>
     <t>"始于荒诞，止于更荒诞。"</t>
@@ -2739,7 +2734,7 @@
     <t xml:space="preserve"> 周润发 Yun-Fat Chow / 张国荣 Leslie Cheung...</t>
   </si>
   <si>
-    <t> 剧情 喜剧 动作 犯罪</t>
+    <t xml:space="preserve"> 剧情 喜剧 动作 犯罪</t>
   </si>
   <si>
     <t>"香港浪漫主义警匪动作片的巅峰之作。"</t>
@@ -2766,7 +2761,7 @@
     <t xml:space="preserve"> 马修·麦康纳 Matthew McCon...</t>
   </si>
   <si>
-    <t> 剧情 传记 同性</t>
+    <t xml:space="preserve"> 剧情 传记 同性</t>
   </si>
   <si>
     <t>"Jared Leto的腿比女人还美！"</t>
@@ -2784,7 +2779,7 @@
     <t xml:space="preserve"> 汤姆·汉克斯 Tom Hanks / 蒂姆·艾...</t>
   </si>
   <si>
-    <t> 喜剧 动画 奇幻 冒险</t>
+    <t xml:space="preserve"> 喜剧 动画 奇幻 冒险</t>
   </si>
   <si>
     <t>"跨度十五年的欢乐与泪水。"</t>
@@ -2802,7 +2797,7 @@
     <t xml:space="preserve"> 唐·钱德尔 Don Cheadle / 苏菲·奥...</t>
   </si>
   <si>
-    <t> 英国 南非 意大利 美国 </t>
+    <t xml:space="preserve"> 英国 南非 意大利 美国 </t>
   </si>
   <si>
     <t>"当这个世界闭上双眼，他却敞开了怀抱。"</t>
@@ -2859,7 +2854,7 @@
     <t xml:space="preserve"> 雅克·贝汉 Jacques Perrin / 雅克·克鲁奥德 Jacques Cluzaud</t>
   </si>
   <si>
-    <t> 法国 瑞士 西班牙 美国 阿联酋 </t>
+    <t xml:space="preserve"> 法国 瑞士 西班牙 美国 阿联酋 </t>
   </si>
   <si>
     <t>"大海啊，不全是水。"</t>
@@ -2880,10 +2875,10 @@
     <t>1966</t>
   </si>
   <si>
-    <t> 法国 英国 </t>
-  </si>
-  <si>
-    <t> 喜剧 战争</t>
+    <t xml:space="preserve"> 法国 英国 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 喜剧 战争</t>
   </si>
   <si>
     <t>"永远看不腻的喜剧。"</t>
@@ -2916,7 +2911,7 @@
     <t xml:space="preserve"> 山口胜平 Kappei Yamaguchi / 爱河...</t>
   </si>
   <si>
-    <t> 剧情 动画 儿童</t>
+    <t xml:space="preserve"> 剧情 动画 儿童</t>
   </si>
   <si>
     <t>"感情不分食草或者食肉。"</t>
@@ -2943,7 +2938,7 @@
     <t xml:space="preserve"> 杰米·福克斯 Jamie Foxx /...</t>
   </si>
   <si>
-    <t> 剧情 动作 西部 冒险</t>
+    <t xml:space="preserve"> 剧情 动作 西部 冒险</t>
   </si>
   <si>
     <t>"热血沸腾，那个低俗、性感的无耻混蛋又来了。"</t>
@@ -2973,7 +2968,7 @@
     <t xml:space="preserve"> 布拉德·皮特 Brad Pitt / 安东...</t>
   </si>
   <si>
-    <t> 剧情 爱情 战争 西部</t>
+    <t xml:space="preserve"> 剧情 爱情 战争 西部</t>
   </si>
   <si>
     <t>"传奇，不是每个人都可以拥有。"</t>
@@ -3054,7 +3049,7 @@
     <t>1952</t>
   </si>
   <si>
-    <t> 喜剧 歌舞 爱情</t>
+    <t xml:space="preserve"> 喜剧 歌舞 爱情</t>
   </si>
   <si>
     <t>"骨灰级歌舞片。"</t>
@@ -3084,7 +3079,7 @@
     <t xml:space="preserve"> 海利·乔·奥斯蒙 Haley...</t>
   </si>
   <si>
-    <t> 冒险 剧情 科幻</t>
+    <t xml:space="preserve"> 冒险 剧情 科幻</t>
   </si>
   <si>
     <t>"对爱的执着，可以超越一切。"</t>
@@ -3117,7 +3112,7 @@
     <t xml:space="preserve"> 仲里依纱 Riisa Naka / 石田卓也 Takuya...</t>
   </si>
   <si>
-    <t> 剧情 爱情 科幻 动画</t>
+    <t xml:space="preserve"> 剧情 爱情 科幻 动画</t>
   </si>
   <si>
     <t>"爱上未来的你。 "</t>
@@ -3138,7 +3133,7 @@
     <t>1940</t>
   </si>
   <si>
-    <t> 剧情 爱情 战争</t>
+    <t xml:space="preserve"> 剧情 爱情 战争</t>
   </si>
   <si>
     <t>"中国式内在的美国电影。"</t>
@@ -3153,7 +3148,7 @@
     <t xml:space="preserve"> 岩男润子 Junko Iwao / 松本梨香 Rica Matsu...</t>
   </si>
   <si>
-    <t> 动画 奇幻 惊悚</t>
+    <t xml:space="preserve"> 动画 奇幻 惊悚</t>
   </si>
   <si>
     <t>"好的剧本是，就算你猜到了结局也猜不到全部。"</t>
@@ -3186,7 +3181,7 @@
     <t xml:space="preserve"> 本尼迪克特·康伯巴奇 Benedict C...</t>
   </si>
   <si>
-    <t> 剧情 传记 战争 同性</t>
+    <t xml:space="preserve"> 剧情 传记 战争 同性</t>
   </si>
   <si>
     <t>"他给机器起名“克里斯托弗”，因为这是他初恋的名字。"</t>
@@ -3204,7 +3199,7 @@
     <t xml:space="preserve"> 罗夫·拉斯加德 Rolf Lassgård...</t>
   </si>
   <si>
-    <t> 瑞典 </t>
+    <t xml:space="preserve"> 瑞典 </t>
   </si>
   <si>
     <t>"惠及一生的美丽。"</t>
@@ -3222,7 +3217,7 @@
     <t xml:space="preserve"> 布丽·拉尔森 Brie Larson...</t>
   </si>
   <si>
-    <t> 爱尔兰 加拿大 英国 美国 </t>
+    <t xml:space="preserve"> 爱尔兰 加拿大 英国 美国 </t>
   </si>
   <si>
     <t>"被偷走的岁月，被伤害的生命，被禁锢的灵魂，终将被希望和善意救赎。"</t>
@@ -3270,7 +3265,7 @@
     <t>1950</t>
   </si>
   <si>
-    <t> 犯罪 剧情 悬疑</t>
+    <t xml:space="preserve"> 犯罪 剧情 悬疑</t>
   </si>
   <si>
     <t>"人生的N种可能性。"</t>
@@ -3288,7 +3283,7 @@
     <t xml:space="preserve"> 梅利莎·乔治 Melissa ...</t>
   </si>
   <si>
-    <t> 英国 澳大利亚 </t>
+    <t xml:space="preserve"> 英国 澳大利亚 </t>
   </si>
   <si>
     <t>"不要企图在重复中寻找已经失去的爱。"</t>
@@ -3315,7 +3310,7 @@
     <t xml:space="preserve"> 张国荣 Leslie Cheung / 张曼玉 Maggie C...</t>
   </si>
   <si>
-    <t> 犯罪 剧情 爱情</t>
+    <t xml:space="preserve"> 犯罪 剧情 爱情</t>
   </si>
   <si>
     <t>"王家卫是一种风格，张国荣是一个代表。"</t>
@@ -3333,10 +3328,10 @@
     <t xml:space="preserve"> 本·卫肖 Ben Whishaw / 艾伦·瑞克...</t>
   </si>
   <si>
-    <t> 德国 法国 西班牙 美国 </t>
-  </si>
-  <si>
-    <t> 剧情 犯罪 奇幻</t>
+    <t xml:space="preserve"> 德国 法国 西班牙 美国 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 犯罪 奇幻</t>
   </si>
   <si>
     <t>"一个单凭体香达到高潮的男人。"</t>
@@ -3387,7 +3382,7 @@
     <t>1979</t>
   </si>
   <si>
-    <t> 冒险 动画 奇幻</t>
+    <t xml:space="preserve"> 冒险 动画 奇幻</t>
   </si>
   <si>
     <t>"想你时你在闹海。"</t>
@@ -3447,7 +3442,7 @@
     <t xml:space="preserve"> 马特·达蒙 Matt Damon / 弗兰卡·波坦...</t>
   </si>
   <si>
-    <t> 美国 德国 捷克 </t>
+    <t xml:space="preserve"> 美国 德国 捷克 </t>
   </si>
   <si>
     <t>"哗啦啦啦啦，天在下雨，哗啦啦啦啦，云在哭泣……找自己。"</t>
@@ -3486,7 +3481,7 @@
     <t xml:space="preserve"> 张震 Chen Chang / 杨静怡 Lisa Yang / 张...</t>
   </si>
   <si>
-    <t> 台湾 </t>
+    <t xml:space="preserve"> 台湾 </t>
   </si>
   <si>
     <t>"弱者送给弱者的一刀。"</t>
@@ -3516,7 +3511,7 @@
     <t xml:space="preserve"> 阿斯哈·法哈蒂</t>
   </si>
   <si>
-    <t> 伊朗 法国 </t>
+    <t xml:space="preserve"> 伊朗 法国 </t>
   </si>
   <si>
     <t>"只有有信仰的人才能说出事实真相。"</t>
@@ -3534,7 +3529,7 @@
     <t xml:space="preserve"> 张曼玉 Maggie Cheung / 王祖贤 Joey Wang / ...</t>
   </si>
   <si>
-    <t> 剧情 爱情 奇幻 古装</t>
+    <t xml:space="preserve"> 剧情 爱情 奇幻 古装</t>
   </si>
   <si>
     <t>"人生如此，浮生如斯。谁人言，花彼岸，此生情长意短。谁都是不懂爱的罢了。"</t>
@@ -3567,7 +3562,7 @@
     <t xml:space="preserve"> 杰里米·西奥伯德 Jeremy...</t>
   </si>
   <si>
-    <t> 犯罪 悬疑 惊悚</t>
+    <t xml:space="preserve"> 犯罪 悬疑 惊悚</t>
   </si>
   <si>
     <t>"诺兰的牛逼来源于内心散发出的恐惧。"</t>
@@ -3585,7 +3580,7 @@
     <t xml:space="preserve"> 郭涛 Tao Guo / 刘桦 Hua Liu / 连晋 Teddy Lin</t>
   </si>
   <si>
-    <t> 喜剧 犯罪</t>
+    <t xml:space="preserve"> 喜剧 犯罪</t>
   </si>
   <si>
     <t>"中国版《两杆大烟枪》。"</t>
@@ -3615,7 +3610,7 @@
     <t xml:space="preserve"> 萨尔曼·汗 Salman Khan / 哈莎莉·马...</t>
   </si>
   <si>
-    <t> 剧情 喜剧 动作</t>
+    <t xml:space="preserve"> 剧情 喜剧 动作</t>
   </si>
   <si>
     <t>"宝莱坞的萝莉与大叔。"</t>
@@ -3633,7 +3628,7 @@
     <t xml:space="preserve"> 杰克·吉伦哈尔 Jake Gyllenhaal / ...</t>
   </si>
   <si>
-    <t> 科幻 悬疑 惊悚</t>
+    <t xml:space="preserve"> 科幻 悬疑 惊悚</t>
   </si>
   <si>
     <t>"邓肯·琼斯继《月球》之后再度奉献出一部精彩绝伦的科幻佳作。"</t>
@@ -3678,7 +3673,7 @@
     <t xml:space="preserve"> 凯拉·奈特莉 Keira Knightley / 马克...</t>
   </si>
   <si>
-    <t> 喜剧 爱情 音乐</t>
+    <t xml:space="preserve"> 喜剧 爱情 音乐</t>
   </si>
   <si>
     <t>"爱我就给我看你的播放列表。"</t>
@@ -3696,7 +3691,7 @@
     <t xml:space="preserve"> 普特鹏·普罗萨卡·那·萨克那卡林 Puttipong Promsaka Na Sakolnakorn / 华森·波克彭...</t>
   </si>
   <si>
-    <t> 泰国 </t>
+    <t xml:space="preserve"> 泰国 </t>
   </si>
   <si>
     <t>"黑小鸭速效美白记。"</t>
@@ -3714,7 +3709,7 @@
     <t xml:space="preserve"> 张曼玉 Maggie Cheung / 林青霞 Brigitte ...</t>
   </si>
   <si>
-    <t> 动作 爱情 武侠 古装</t>
+    <t xml:space="preserve"> 动作 爱情 武侠 古装</t>
   </si>
   <si>
     <t>"嬉笑怒骂，调风动月。"</t>
@@ -3762,7 +3757,7 @@
     <t>爱在午夜降临前</t>
   </si>
   <si>
-    <t> 美国 希腊 </t>
+    <t xml:space="preserve"> 美国 希腊 </t>
   </si>
   <si>
     <t>"所谓爱情，就是话唠一路，都不会心生腻烦，彼此嫌弃。"</t>
@@ -3828,10 +3823,10 @@
     <t xml:space="preserve"> 阿努克·斯特芬 Anuk Steffen /...</t>
   </si>
   <si>
-    <t> 德国 瑞士 南非 </t>
-  </si>
-  <si>
-    <t> 剧情 冒险 家庭</t>
+    <t xml:space="preserve"> 德国 瑞士 南非 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 剧情 冒险 家庭</t>
   </si>
   <si>
     <t>221</t>
@@ -3846,7 +3841,7 @@
     <t xml:space="preserve"> 汤姆·汉克斯 Tom Hanks / 大卫·摩斯 David M...</t>
   </si>
   <si>
-    <t> 犯罪 剧情 奇幻 悬疑</t>
+    <t xml:space="preserve"> 犯罪 剧情 奇幻 悬疑</t>
   </si>
   <si>
     <t>"天使暂时离开。"</t>
@@ -3891,7 +3886,7 @@
     <t xml:space="preserve"> 莱昂纳多·迪卡普里奥 Leonardo ...</t>
   </si>
   <si>
-    <t> 剧情 惊悚 冒险</t>
+    <t xml:space="preserve"> 剧情 惊悚 冒险</t>
   </si>
   <si>
     <t>"每个美丽事物背后都是滴血的现实。"</t>
@@ -3927,7 +3922,7 @@
     <t xml:space="preserve"> 吉娜·戴维斯 Geena Davis / 苏...</t>
   </si>
   <si>
-    <t> 犯罪 剧情 惊悚</t>
+    <t xml:space="preserve"> 犯罪 剧情 惊悚</t>
   </si>
   <si>
     <t>"没有了退路，只好飞向自由。"</t>
@@ -3948,7 +3943,7 @@
     <t>1968</t>
   </si>
   <si>
-    <t> 科幻 惊悚 冒险</t>
+    <t xml:space="preserve"> 科幻 惊悚 冒险</t>
   </si>
   <si>
     <t>"现代科幻电影的开山之作，最伟大导演的最伟大影片。"</t>
@@ -3966,7 +3961,7 @@
     <t xml:space="preserve"> 马克·鲁弗洛 Mark Ruffalo /...</t>
   </si>
   <si>
-    <t> 剧情 传记</t>
+    <t xml:space="preserve"> 剧情 传记</t>
   </si>
   <si>
     <t>"新闻人的理性求真。"</t>
@@ -3984,7 +3979,7 @@
     <t xml:space="preserve"> 肖恩·康纳利 Sean Connery / 尼古拉...</t>
   </si>
   <si>
-    <t> 动作 冒险</t>
+    <t xml:space="preserve"> 动作 冒险</t>
   </si>
   <si>
     <t>"类型片的极致。 "</t>
@@ -3999,7 +3994,7 @@
     <t xml:space="preserve"> 约翰·特拉沃尔塔 John Travolta / 尼古拉斯...</t>
   </si>
   <si>
-    <t> 动作 科幻 犯罪 惊悚</t>
+    <t xml:space="preserve"> 动作 科幻 犯罪 惊悚</t>
   </si>
   <si>
     <t>"当发哥的风衣、墨镜出现在了凯奇身上⋯⋯"</t>
@@ -4020,7 +4015,7 @@
     <t>1971</t>
   </si>
   <si>
-    <t> 犯罪 剧情 科幻</t>
+    <t xml:space="preserve"> 犯罪 剧情 科幻</t>
   </si>
   <si>
     <t>"我完全康复了。"</t>
@@ -4035,7 +4030,7 @@
     <t xml:space="preserve"> 水桥研二 Kenji Mizuhashi / 近藤好美 ...</t>
   </si>
   <si>
-    <t> 动画 剧情 爱情</t>
+    <t xml:space="preserve"> 动画 剧情 爱情</t>
   </si>
   <si>
     <t>"青春就是放弃和怀念。"</t>
@@ -4053,10 +4048,10 @@
     <t xml:space="preserve"> Clint Eastwood / Eli Wallach / Lee Van Cleef</t>
   </si>
   <si>
-    <t> 意大利 西班牙 西德 </t>
-  </si>
-  <si>
-    <t> 冒险 西部</t>
+    <t xml:space="preserve"> 意大利 西班牙 西德 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 冒险 西部</t>
   </si>
   <si>
     <t>"最棒的西部片。"</t>
@@ -4071,7 +4066,7 @@
     <t xml:space="preserve"> 乔什·哈奈特 Josh Hartnett / ...</t>
   </si>
   <si>
-    <t> 动作 历史 战争</t>
+    <t xml:space="preserve"> 动作 历史 战争</t>
   </si>
   <si>
     <t>"还原真实而残酷的战争。"</t>
@@ -4089,7 +4084,7 @@
     <t xml:space="preserve"> 史蒂芬·鲍德温 Stephen Baldwin /...</t>
   </si>
   <si>
-    <t> 德国 美国 </t>
+    <t xml:space="preserve"> 德国 美国 </t>
   </si>
   <si>
     <t>"我不信仰上帝，但我敬畏上帝。"</t>
@@ -4140,7 +4135,7 @@
     <t xml:space="preserve"> 柯林·菲尔斯 Colin Firth / 杰弗里·...</t>
   </si>
   <si>
-    <t> 英国 澳大利亚 美国 </t>
+    <t xml:space="preserve"> 英国 澳大利亚 美国 </t>
   </si>
   <si>
     <t>"皇上无话儿。"</t>
@@ -4155,7 +4150,7 @@
     <t xml:space="preserve"> 伊桑·霍克 Ethan Hawke / 乌玛...</t>
   </si>
   <si>
-    <t> 剧情 科幻 惊悚</t>
+    <t xml:space="preserve"> 剧情 科幻 惊悚</t>
   </si>
   <si>
     <t>"一部能引人思考的科幻励志片。"</t>
@@ -4188,7 +4183,7 @@
     <t xml:space="preserve"> 周星驰 Stephen Chow / 元秋 Qiu Yuen / ...</t>
   </si>
   <si>
-    <t> 动作 喜剧 犯罪 奇幻</t>
+    <t xml:space="preserve"> 动作 喜剧 犯罪 奇幻</t>
   </si>
   <si>
     <t>242</t>
@@ -4200,7 +4195,7 @@
     <t xml:space="preserve"> 杰克·尼科尔森 Jack Nicholson / 摩根...</t>
   </si>
   <si>
-    <t> 冒险 喜剧 剧情</t>
+    <t xml:space="preserve"> 冒险 喜剧 剧情</t>
   </si>
   <si>
     <t>"用剩余不多的时间，去燃烧整个生命。"</t>
@@ -4218,10 +4213,10 @@
     <t xml:space="preserve"> 汤姆·哈迪 Tom Hardy / 查理兹·塞...</t>
   </si>
   <si>
-    <t> 澳大利亚 美国 </t>
-  </si>
-  <si>
-    <t> 动作 科幻 冒险</t>
+    <t xml:space="preserve"> 澳大利亚 美国 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 动作 科幻 冒险</t>
   </si>
   <si>
     <t>244</t>
@@ -4236,7 +4231,7 @@
     <t xml:space="preserve"> 让-马克·巴尔 Jean-Marc Barr / 让·雷诺 Jean Re...</t>
   </si>
   <si>
-    <t> 法国 美国 意大利 </t>
+    <t xml:space="preserve"> 法国 美国 意大利 </t>
   </si>
   <si>
     <t>"在那片深蓝中，感受来自大海的忧伤寂寞与美丽自由。"</t>
@@ -4248,7 +4243,7 @@
     <t>荒岛余生</t>
   </si>
   <si>
-    <t> 冒险 剧情</t>
+    <t xml:space="preserve"> 冒险 剧情</t>
   </si>
   <si>
     <t>"一个人的独角戏。"</t>
@@ -4266,7 +4261,7 @@
     <t xml:space="preserve"> 拉尔夫·费因斯 Ralph Fien...</t>
   </si>
   <si>
-    <t> 爱情 剧情 战争</t>
+    <t xml:space="preserve"> 爱情 剧情 战争</t>
   </si>
   <si>
     <t>"In memory, love lives forever..."</t>
@@ -4284,7 +4279,7 @@
     <t xml:space="preserve"> 埃米尔·赫斯基 Emile Hirsch / 马西娅·...</t>
   </si>
   <si>
-    <t> 冒险 传记 剧情</t>
+    <t xml:space="preserve"> 冒险 传记 剧情</t>
   </si>
   <si>
     <t>"出门必备：本草纲目。"</t>
@@ -4317,7 +4312,7 @@
     <t xml:space="preserve"> 雅各布·特伦布莱 Jacob Tr...</t>
   </si>
   <si>
-    <t> 美国 香港 </t>
+    <t xml:space="preserve"> 美国 香港 </t>
   </si>
   <si>
     <t>250</t>
@@ -4338,26 +4333,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -4373,27 +4369,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -4681,24 +4668,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="24.26953125" customWidth="1"/>
-    <col min="4" max="4" width="47.26953125" customWidth="1"/>
-    <col min="5" max="5" width="44.08984375" customWidth="1"/>
-    <col min="7" max="7" width="24.1796875" customWidth="1"/>
-    <col min="8" max="8" width="28.7265625" customWidth="1"/>
-    <col min="9" max="9" width="78.453125" customWidth="1"/>
+    <col customWidth="1" max="3" min="3" width="24.26953125"/>
+    <col customWidth="1" max="4" min="4" width="47.26953125"/>
+    <col customWidth="1" max="5" min="5" width="44.08984375"/>
+    <col customWidth="1" max="7" min="7" width="24.1796875"/>
+    <col customWidth="1" max="8" min="8" width="28.7265625"/>
+    <col customWidth="1" max="9" min="9" width="78.453125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4727,41 +4718,41 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
@@ -4785,882 +4776,882 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="H13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="I21" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="G26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="I28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="I29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>236</v>
@@ -5672,24 +5663,24 @@
         <v>238</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>241</v>
@@ -5713,18 +5704,18 @@
         <v>247</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>249</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>250</v>
@@ -5733,21 +5724,21 @@
         <v>251</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>254</v>
@@ -5759,10 +5750,10 @@
         <v>256</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>257</v>
@@ -5771,7 +5762,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>259</v>
       </c>
@@ -5788,10 +5779,10 @@
         <v>263</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>264</v>
@@ -5800,7 +5791,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>266</v>
       </c>
@@ -5811,30 +5802,30 @@
         <v>267</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>270</v>
@@ -5858,12 +5849,12 @@
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>278</v>
@@ -5878,7 +5869,7 @@
         <v>281</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>282</v>
@@ -5887,41 +5878,41 @@
         <v>283</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>285</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>286</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>289</v>
@@ -5936,21 +5927,21 @@
         <v>292</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>295</v>
@@ -5959,10 +5950,10 @@
         <v>296</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>297</v>
@@ -5974,12 +5965,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>301</v>
@@ -5994,21 +5985,21 @@
         <v>304</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>307</v>
@@ -6020,7 +6011,7 @@
         <v>309</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>310</v>
@@ -6032,12 +6023,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>314</v>
@@ -6052,27 +6043,27 @@
         <v>317</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
         <v>319</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>320</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>321</v>
@@ -6081,21 +6072,21 @@
         <v>322</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>325</v>
@@ -6119,12 +6110,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
         <v>332</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>333</v>
@@ -6136,7 +6127,7 @@
         <v>334</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>245</v>
@@ -6148,7 +6139,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
         <v>336</v>
       </c>
@@ -6177,18 +6168,18 @@
         <v>344</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
         <v>345</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>346</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>347</v>
@@ -6197,21 +6188,21 @@
         <v>348</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
         <v>350</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>351</v>
@@ -6226,21 +6217,21 @@
         <v>304</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>356</v>
@@ -6252,7 +6243,7 @@
         <v>334</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>357</v>
@@ -6264,12 +6255,12 @@
         <v>358</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>360</v>
@@ -6281,10 +6272,10 @@
         <v>362</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>363</v>
@@ -6293,12 +6284,12 @@
         <v>364</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
         <v>365</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>366</v>
@@ -6313,7 +6304,7 @@
         <v>369</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>370</v>
@@ -6322,24 +6313,24 @@
         <v>371</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>373</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>374</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>375</v>
@@ -6351,7 +6342,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
         <v>378</v>
       </c>
@@ -6368,10 +6359,10 @@
         <v>381</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>382</v>
@@ -6380,12 +6371,12 @@
         <v>383</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
         <v>384</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>385</v>
@@ -6397,10 +6388,10 @@
         <v>387</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>388</v>
@@ -6409,7 +6400,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
         <v>390</v>
       </c>
@@ -6426,24 +6417,24 @@
         <v>393</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
         <v>395</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>396</v>
@@ -6455,7 +6446,7 @@
         <v>398</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>399</v>
@@ -6467,12 +6458,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
         <v>402</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>403</v>
@@ -6490,13 +6481,13 @@
         <v>407</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
         <v>409</v>
       </c>
@@ -6513,10 +6504,10 @@
         <v>411</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>412</v>
@@ -6525,12 +6516,12 @@
         <v>413</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
         <v>414</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>415</v>
@@ -6542,7 +6533,7 @@
         <v>417</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>418</v>
@@ -6554,7 +6545,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
         <v>421</v>
       </c>
@@ -6568,7 +6559,7 @@
         <v>423</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>273</v>
@@ -6583,7 +6574,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
         <v>427</v>
       </c>
@@ -6600,7 +6591,7 @@
         <v>430</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>431</v>
@@ -6612,7 +6603,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
         <v>434</v>
       </c>
@@ -6623,13 +6614,13 @@
         <v>435</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>436</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>407</v>
@@ -6641,7 +6632,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
         <v>439</v>
       </c>
@@ -6652,13 +6643,13 @@
         <v>441</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>442</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>23</v>
@@ -6670,12 +6661,12 @@
         <v>444</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>446</v>
@@ -6699,7 +6690,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
         <v>453</v>
       </c>
@@ -6710,25 +6701,25 @@
         <v>454</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>455</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
         <v>457</v>
       </c>
@@ -6745,10 +6736,10 @@
         <v>460</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>461</v>
@@ -6757,7 +6748,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
         <v>463</v>
       </c>
@@ -6768,16 +6759,16 @@
         <v>464</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>465</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>466</v>
@@ -6786,7 +6777,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
         <v>468</v>
       </c>
@@ -6803,10 +6794,10 @@
         <v>470</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>432</v>
@@ -6815,7 +6806,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
         <v>472</v>
       </c>
@@ -6832,10 +6823,10 @@
         <v>475</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>476</v>
@@ -6844,12 +6835,12 @@
         <v>477</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
         <v>478</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>479</v>
@@ -6864,7 +6855,7 @@
         <v>482</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>483</v>
@@ -6873,7 +6864,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
         <v>485</v>
       </c>
@@ -6890,10 +6881,10 @@
         <v>488</v>
       </c>
       <c r="F76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>311</v>
@@ -6902,7 +6893,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
         <v>490</v>
       </c>
@@ -6919,7 +6910,7 @@
         <v>493</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>494</v>
@@ -6931,7 +6922,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
         <v>497</v>
       </c>
@@ -6951,7 +6942,7 @@
         <v>501</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>502</v>
@@ -6960,7 +6951,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
         <v>504</v>
       </c>
@@ -6977,10 +6968,10 @@
         <v>507</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>508</v>
@@ -6989,7 +6980,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
         <v>510</v>
       </c>
@@ -7009,7 +7000,7 @@
         <v>514</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>515</v>
@@ -7018,7 +7009,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
         <v>517</v>
       </c>
@@ -7032,10 +7023,10 @@
         <v>519</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>520</v>
@@ -7047,7 +7038,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
         <v>523</v>
       </c>
@@ -7058,13 +7049,13 @@
         <v>524</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>525</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>520</v>
@@ -7076,7 +7067,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
         <v>528</v>
       </c>
@@ -7093,7 +7084,7 @@
         <v>531</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>532</v>
@@ -7105,7 +7096,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
         <v>534</v>
       </c>
@@ -7122,19 +7113,19 @@
         <v>537</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
         <v>539</v>
       </c>
@@ -7151,7 +7142,7 @@
         <v>542</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>543</v>
@@ -7163,7 +7154,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
         <v>546</v>
       </c>
@@ -7180,10 +7171,10 @@
         <v>549</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>466</v>
@@ -7192,7 +7183,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
         <v>551</v>
       </c>
@@ -7209,24 +7200,24 @@
         <v>554</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
         <v>556</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>557</v>
@@ -7238,7 +7229,7 @@
         <v>559</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>560</v>
@@ -7250,7 +7241,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
         <v>563</v>
       </c>
@@ -7261,25 +7252,25 @@
         <v>564</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>565</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
         <v>567</v>
       </c>
@@ -7290,16 +7281,16 @@
         <v>568</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>569</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>570</v>
@@ -7308,7 +7299,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
         <v>572</v>
       </c>
@@ -7319,25 +7310,25 @@
         <v>573</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>574</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
         <v>576</v>
       </c>
@@ -7357,7 +7348,7 @@
         <v>273</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>466</v>
@@ -7366,7 +7357,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
         <v>581</v>
       </c>
@@ -7386,7 +7377,7 @@
         <v>244</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>466</v>
@@ -7395,7 +7386,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
         <v>586</v>
       </c>
@@ -7412,7 +7403,7 @@
         <v>589</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>590</v>
@@ -7424,12 +7415,12 @@
         <v>592</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
         <v>593</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>594</v>
@@ -7441,19 +7432,19 @@
         <v>596</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>597</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
         <v>599</v>
       </c>
@@ -7473,7 +7464,7 @@
         <v>244</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>603</v>
@@ -7482,7 +7473,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
         <v>605</v>
       </c>
@@ -7493,7 +7484,7 @@
         <v>606</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>607</v>
@@ -7511,7 +7502,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
         <v>610</v>
       </c>
@@ -7528,24 +7519,24 @@
         <v>612</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
         <v>614</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>615</v>
@@ -7560,16 +7551,16 @@
         <v>618</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
         <v>620</v>
       </c>
@@ -7586,10 +7577,10 @@
         <v>622</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>623</v>
@@ -7598,7 +7589,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
         <v>625</v>
       </c>
@@ -7618,7 +7609,7 @@
         <v>273</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>282</v>
@@ -7627,7 +7618,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
         <v>631</v>
       </c>
@@ -7647,7 +7638,7 @@
         <v>244</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>634</v>
@@ -7656,12 +7647,12 @@
         <v>635</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>637</v>
@@ -7673,7 +7664,7 @@
         <v>639</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>640</v>
@@ -7685,7 +7676,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
         <v>643</v>
       </c>
@@ -7702,10 +7693,10 @@
         <v>645</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>432</v>
@@ -7714,7 +7705,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="s">
         <v>647</v>
       </c>
@@ -7725,7 +7716,7 @@
         <v>648</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>649</v>
@@ -7734,7 +7725,7 @@
         <v>22</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>650</v>
@@ -7743,7 +7734,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="s">
         <v>652</v>
       </c>
@@ -7760,19 +7751,19 @@
         <v>655</v>
       </c>
       <c r="F106" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="H106" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="s">
         <v>657</v>
       </c>
@@ -7792,16 +7783,16 @@
         <v>661</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="s">
         <v>663</v>
       </c>
@@ -7818,24 +7809,24 @@
         <v>666</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>667</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="s">
         <v>669</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>670</v>
@@ -7847,19 +7838,19 @@
         <v>672</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="s">
         <v>674</v>
       </c>
@@ -7876,10 +7867,10 @@
         <v>677</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>678</v>
@@ -7888,7 +7879,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="s">
         <v>680</v>
       </c>
@@ -7905,19 +7896,19 @@
         <v>683</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="s">
         <v>685</v>
       </c>
@@ -7934,10 +7925,10 @@
         <v>688</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>689</v>
@@ -7946,7 +7937,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="s">
         <v>691</v>
       </c>
@@ -7966,7 +7957,7 @@
         <v>328</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>695</v>
@@ -7975,7 +7966,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="s">
         <v>697</v>
       </c>
@@ -8004,7 +7995,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="s">
         <v>703</v>
       </c>
@@ -8024,16 +8015,16 @@
         <v>304</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="s">
         <v>708</v>
       </c>
@@ -8044,7 +8035,7 @@
         <v>709</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>710</v>
@@ -8053,16 +8044,16 @@
         <v>406</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="s">
         <v>712</v>
       </c>
@@ -8079,19 +8070,19 @@
         <v>715</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>716</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="s">
         <v>718</v>
       </c>
@@ -8108,19 +8099,19 @@
         <v>721</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="s">
         <v>723</v>
       </c>
@@ -8137,19 +8128,19 @@
         <v>666</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="s">
         <v>726</v>
       </c>
@@ -8169,16 +8160,16 @@
         <v>273</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="s">
         <v>731</v>
       </c>
@@ -8189,16 +8180,16 @@
         <v>732</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>455</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>282</v>
@@ -8207,7 +8198,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="s">
         <v>734</v>
       </c>
@@ -8224,10 +8215,10 @@
         <v>737</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>738</v>
@@ -8236,12 +8227,12 @@
         <v>739</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="s">
         <v>740</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>741</v>
@@ -8256,16 +8247,16 @@
         <v>742</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="s">
         <v>744</v>
       </c>
@@ -8285,7 +8276,7 @@
         <v>244</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>748</v>
@@ -8294,7 +8285,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="s">
         <v>750</v>
       </c>
@@ -8311,19 +8302,19 @@
         <v>368</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>754</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="s">
         <v>756</v>
       </c>
@@ -8340,19 +8331,19 @@
         <v>759</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="s">
         <v>761</v>
       </c>
@@ -8372,7 +8363,7 @@
         <v>304</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>765</v>
@@ -8381,7 +8372,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="s">
         <v>767</v>
       </c>
@@ -8398,10 +8389,10 @@
         <v>770</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>771</v>
@@ -8410,7 +8401,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="s">
         <v>773</v>
       </c>
@@ -8430,7 +8421,7 @@
         <v>22</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>777</v>
@@ -8439,7 +8430,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="s">
         <v>779</v>
       </c>
@@ -8456,10 +8447,10 @@
         <v>782</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>783</v>
@@ -8468,7 +8459,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="s">
         <v>785</v>
       </c>
@@ -8485,10 +8476,10 @@
         <v>788</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>789</v>
@@ -8497,7 +8488,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="s">
         <v>791</v>
       </c>
@@ -8508,25 +8499,25 @@
         <v>792</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E132" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H132" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="s">
         <v>794</v>
       </c>
@@ -8543,10 +8534,10 @@
         <v>797</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>376</v>
@@ -8555,12 +8546,12 @@
         <v>798</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="s">
         <v>799</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>800</v>
@@ -8575,7 +8566,7 @@
         <v>803</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>804</v>
@@ -8584,7 +8575,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="s">
         <v>806</v>
       </c>
@@ -8601,10 +8592,10 @@
         <v>809</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>810</v>
@@ -8613,7 +8604,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="s">
         <v>812</v>
       </c>
@@ -8642,7 +8633,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="s">
         <v>818</v>
       </c>
@@ -8671,7 +8662,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="s">
         <v>825</v>
       </c>
@@ -8685,22 +8676,22 @@
         <v>827</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>304</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="s">
         <v>829</v>
       </c>
@@ -8711,7 +8702,7 @@
         <v>830</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>831</v>
@@ -8729,7 +8720,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="s">
         <v>834</v>
       </c>
@@ -8746,10 +8737,10 @@
         <v>837</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>838</v>
@@ -8758,12 +8749,12 @@
         <v>839</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="s">
         <v>840</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>841</v>
@@ -8775,19 +8766,19 @@
         <v>843</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I141" s="1" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="s">
         <v>845</v>
       </c>
@@ -8804,7 +8795,7 @@
         <v>847</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>848</v>
@@ -8816,7 +8807,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="s">
         <v>851</v>
       </c>
@@ -8833,19 +8824,19 @@
         <v>854</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>560</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I143" s="1" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="s">
         <v>856</v>
       </c>
@@ -8865,7 +8856,7 @@
         <v>251</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>860</v>
@@ -8874,7 +8865,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="s">
         <v>862</v>
       </c>
@@ -8891,10 +8882,10 @@
         <v>865</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>623</v>
@@ -8903,7 +8894,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="s">
         <v>867</v>
       </c>
@@ -8914,16 +8905,16 @@
         <v>868</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>869</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>748</v>
@@ -8932,7 +8923,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="s">
         <v>871</v>
       </c>
@@ -8949,7 +8940,7 @@
         <v>873</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>424</v>
@@ -8961,7 +8952,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="s">
         <v>876</v>
       </c>
@@ -8978,19 +8969,19 @@
         <v>879</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="s">
         <v>881</v>
       </c>
@@ -9013,13 +9004,13 @@
         <v>885</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="s">
         <v>887</v>
       </c>
@@ -9048,7 +9039,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="s">
         <v>892</v>
       </c>
@@ -9065,19 +9056,19 @@
         <v>895</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="s">
         <v>897</v>
       </c>
@@ -9094,7 +9085,7 @@
         <v>900</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>901</v>
@@ -9106,7 +9097,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="s">
         <v>903</v>
       </c>
@@ -9126,7 +9117,7 @@
         <v>501</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>906</v>
@@ -9135,7 +9126,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="s">
         <v>908</v>
       </c>
@@ -9146,7 +9137,7 @@
         <v>909</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>347</v>
@@ -9155,16 +9146,16 @@
         <v>514</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="s">
         <v>911</v>
       </c>
@@ -9184,7 +9175,7 @@
         <v>304</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>915</v>
@@ -9193,7 +9184,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="s">
         <v>917</v>
       </c>
@@ -9210,10 +9201,10 @@
         <v>920</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>921</v>
@@ -9222,7 +9213,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="s">
         <v>923</v>
       </c>
@@ -9239,24 +9230,24 @@
         <v>926</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>927</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="s">
         <v>929</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>930</v>
@@ -9271,16 +9262,16 @@
         <v>22</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="s">
         <v>934</v>
       </c>
@@ -9297,19 +9288,19 @@
         <v>936</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="s">
         <v>938</v>
       </c>
@@ -9326,10 +9317,10 @@
         <v>941</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>376</v>
@@ -9338,12 +9329,12 @@
         <v>942</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="s">
         <v>943</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>944</v>
@@ -9355,7 +9346,7 @@
         <v>683</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>946</v>
@@ -9367,7 +9358,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="s">
         <v>948</v>
       </c>
@@ -9396,7 +9387,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="s">
         <v>956</v>
       </c>
@@ -9413,19 +9404,19 @@
         <v>959</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I163" s="1" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="s">
         <v>961</v>
       </c>
@@ -9442,10 +9433,10 @@
         <v>964</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>965</v>
@@ -9454,7 +9445,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="s">
         <v>967</v>
       </c>
@@ -9468,13 +9459,13 @@
         <v>969</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>742</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>363</v>
@@ -9483,7 +9474,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="s">
         <v>971</v>
       </c>
@@ -9500,10 +9491,10 @@
         <v>973</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>974</v>
@@ -9512,7 +9503,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="s">
         <v>976</v>
       </c>
@@ -9526,22 +9517,22 @@
         <v>978</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>742</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I167" s="1" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="s">
         <v>980</v>
       </c>
@@ -9558,10 +9549,10 @@
         <v>983</v>
       </c>
       <c r="F168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G168" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>984</v>
@@ -9570,7 +9561,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="s">
         <v>986</v>
       </c>
@@ -9587,10 +9578,10 @@
         <v>989</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>921</v>
@@ -9599,7 +9590,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="s">
         <v>991</v>
       </c>
@@ -9613,22 +9604,22 @@
         <v>993</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I170" s="1" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="s">
         <v>995</v>
       </c>
@@ -9645,10 +9636,10 @@
         <v>999</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>678</v>
@@ -9657,7 +9648,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="s">
         <v>1001</v>
       </c>
@@ -9674,10 +9665,10 @@
         <v>1004</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>376</v>
@@ -9686,12 +9677,12 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="s">
         <v>1006</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>1007</v>
@@ -9706,7 +9697,7 @@
         <v>1010</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>1011</v>
@@ -9715,7 +9706,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="s">
         <v>1013</v>
       </c>
@@ -9732,19 +9723,19 @@
         <v>1016</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I174" s="1" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="s">
         <v>1018</v>
       </c>
@@ -9755,16 +9746,16 @@
         <v>1019</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>1020</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>1021</v>
@@ -9773,7 +9764,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="s">
         <v>1023</v>
       </c>
@@ -9793,16 +9784,16 @@
         <v>369</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="s">
         <v>1028</v>
       </c>
@@ -9819,10 +9810,10 @@
         <v>1031</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>1032</v>
@@ -9831,7 +9822,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="s">
         <v>1034</v>
       </c>
@@ -9851,7 +9842,7 @@
         <v>1038</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>1039</v>
@@ -9860,7 +9851,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="s">
         <v>1041</v>
       </c>
@@ -9877,10 +9868,10 @@
         <v>1043</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>1044</v>
@@ -9889,7 +9880,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="s">
         <v>1046</v>
       </c>
@@ -9912,13 +9903,13 @@
         <v>310</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I180" s="1" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="s">
         <v>1051</v>
       </c>
@@ -9935,7 +9926,7 @@
         <v>1054</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>560</v>
@@ -9947,7 +9938,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="s">
         <v>1057</v>
       </c>
@@ -9970,13 +9961,13 @@
         <v>1061</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="s">
         <v>1063</v>
       </c>
@@ -10005,12 +9996,12 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="s">
         <v>1069</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>1070</v>
@@ -10025,16 +10016,16 @@
         <v>328</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I184" s="1" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="s">
         <v>1074</v>
       </c>
@@ -10051,19 +10042,19 @@
         <v>1077</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="s">
         <v>1079</v>
       </c>
@@ -10083,7 +10074,7 @@
         <v>1082</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>1083</v>
@@ -10092,7 +10083,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="s">
         <v>1085</v>
       </c>
@@ -10109,7 +10100,7 @@
         <v>1088</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>1089</v>
@@ -10121,7 +10112,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="s">
         <v>1091</v>
       </c>
@@ -10132,7 +10123,7 @@
         <v>1092</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>1093</v>
@@ -10141,16 +10132,16 @@
         <v>322</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I188" s="1" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="s">
         <v>1095</v>
       </c>
@@ -10170,7 +10161,7 @@
         <v>514</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>1098</v>
@@ -10179,7 +10170,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="s">
         <v>1100</v>
       </c>
@@ -10196,7 +10187,7 @@
         <v>1103</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>1104</v>
@@ -10208,7 +10199,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="s">
         <v>1107</v>
       </c>
@@ -10225,7 +10216,7 @@
         <v>1110</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>297</v>
@@ -10237,7 +10228,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="s">
         <v>1112</v>
       </c>
@@ -10254,19 +10245,19 @@
         <v>1115</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>274</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I192" s="1" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="s">
         <v>1117</v>
       </c>
@@ -10286,7 +10277,7 @@
         <v>1121</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>1122</v>
@@ -10295,7 +10286,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="s">
         <v>1124</v>
       </c>
@@ -10312,19 +10303,19 @@
         <v>1127</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I194" s="1" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="s">
         <v>1129</v>
       </c>
@@ -10353,7 +10344,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="s">
         <v>1134</v>
       </c>
@@ -10373,7 +10364,7 @@
         <v>742</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>376</v>
@@ -10382,7 +10373,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="s">
         <v>1138</v>
       </c>
@@ -10399,7 +10390,7 @@
         <v>1141</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>1142</v>
@@ -10411,7 +10402,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="s">
         <v>1144</v>
       </c>
@@ -10428,7 +10419,7 @@
         <v>821</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>274</v>
@@ -10440,7 +10431,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="s">
         <v>1147</v>
       </c>
@@ -10463,13 +10454,13 @@
         <v>754</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I199" s="1" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="s">
         <v>1152</v>
       </c>
@@ -10492,13 +10483,13 @@
         <v>1155</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I200" s="1" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="s">
         <v>1157</v>
       </c>
@@ -10518,7 +10509,7 @@
         <v>822</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>419</v>
@@ -10527,7 +10518,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="s">
         <v>1162</v>
       </c>
@@ -10544,7 +10535,7 @@
         <v>448</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>1165</v>
@@ -10556,7 +10547,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="s">
         <v>1167</v>
       </c>
@@ -10576,7 +10567,7 @@
         <v>22</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>1171</v>
@@ -10585,7 +10576,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="s">
         <v>1173</v>
       </c>
@@ -10605,7 +10596,7 @@
         <v>1177</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>810</v>
@@ -10614,7 +10605,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="s">
         <v>1179</v>
       </c>
@@ -10625,13 +10616,13 @@
         <v>1180</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>1181</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>310</v>
@@ -10643,7 +10634,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="s">
         <v>1184</v>
       </c>
@@ -10660,7 +10651,7 @@
         <v>1187</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>23</v>
@@ -10672,7 +10663,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="s">
         <v>1190</v>
       </c>
@@ -10683,7 +10674,7 @@
         <v>1191</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>1192</v>
@@ -10701,7 +10692,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="s">
         <v>1194</v>
       </c>
@@ -10721,7 +10712,7 @@
         <v>742</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>1198</v>
@@ -10730,7 +10721,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="s">
         <v>1200</v>
       </c>
@@ -10747,7 +10738,7 @@
         <v>1203</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G209" s="1" t="s">
         <v>520</v>
@@ -10759,7 +10750,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="s">
         <v>1206</v>
       </c>
@@ -10776,19 +10767,19 @@
         <v>1209</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>274</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I210" s="1" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="s">
         <v>1211</v>
       </c>
@@ -10805,10 +10796,10 @@
         <v>1213</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>376</v>
@@ -10817,7 +10808,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="s">
         <v>1215</v>
       </c>
@@ -10837,7 +10828,7 @@
         <v>304</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>1219</v>
@@ -10846,7 +10837,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="s">
         <v>1221</v>
       </c>
@@ -10860,22 +10851,22 @@
         <v>1224</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>1225</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I213" s="1" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="s">
         <v>1227</v>
       </c>
@@ -10895,7 +10886,7 @@
         <v>292</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>1231</v>
@@ -10904,7 +10895,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="s">
         <v>1233</v>
       </c>
@@ -10921,24 +10912,24 @@
         <v>1236</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I215" s="1" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="s">
         <v>1238</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>1239</v>
@@ -10956,13 +10947,13 @@
         <v>1243</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I216" s="1" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="s">
         <v>1245</v>
       </c>
@@ -10985,18 +10976,18 @@
         <v>1247</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I217" s="1" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="s">
         <v>1249</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>1250</v>
@@ -11011,7 +11002,7 @@
         <v>281</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>376</v>
@@ -11020,7 +11011,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="s">
         <v>1254</v>
       </c>
@@ -11037,24 +11028,24 @@
         <v>1257</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>274</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I219" s="1" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="s">
         <v>1259</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>1260</v>
@@ -11069,7 +11060,7 @@
         <v>1263</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>282</v>
@@ -11078,12 +11069,12 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="s">
         <v>1265</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>1266</v>
@@ -11107,7 +11098,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="s">
         <v>1271</v>
       </c>
@@ -11127,7 +11118,7 @@
         <v>273</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>1275</v>
@@ -11136,7 +11127,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="s">
         <v>1277</v>
       </c>
@@ -11156,7 +11147,7 @@
         <v>304</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>1204</v>
@@ -11165,7 +11156,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="s">
         <v>1282</v>
       </c>
@@ -11185,16 +11176,16 @@
         <v>822</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I224" s="1" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="s">
         <v>1287</v>
       </c>
@@ -11211,7 +11202,7 @@
         <v>1289</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>274</v>
@@ -11223,7 +11214,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9">
       <c r="A226" s="1" t="s">
         <v>1292</v>
       </c>
@@ -11243,16 +11234,16 @@
         <v>1296</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I226" s="1" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9">
       <c r="A227" s="1" t="s">
         <v>1298</v>
       </c>
@@ -11281,7 +11272,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9">
       <c r="A228" s="1" t="s">
         <v>1304</v>
       </c>
@@ -11310,7 +11301,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9">
       <c r="A229" s="1" t="s">
         <v>1311</v>
       </c>
@@ -11330,7 +11321,7 @@
         <v>742</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>1315</v>
@@ -11339,7 +11330,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9">
       <c r="A230" s="1" t="s">
         <v>1317</v>
       </c>
@@ -11359,7 +11350,7 @@
         <v>661</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>1321</v>
@@ -11368,7 +11359,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9">
       <c r="A231" s="1" t="s">
         <v>1323</v>
       </c>
@@ -11385,10 +11376,10 @@
         <v>1325</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>1326</v>
@@ -11397,7 +11388,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9">
       <c r="A232" s="1" t="s">
         <v>1328</v>
       </c>
@@ -11426,7 +11417,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9">
       <c r="A233" s="1" t="s">
         <v>1335</v>
       </c>
@@ -11446,7 +11437,7 @@
         <v>822</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H233" s="1" t="s">
         <v>1338</v>
@@ -11455,12 +11446,12 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9">
       <c r="A234" s="1" t="s">
         <v>1340</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>1341</v>
@@ -11484,7 +11475,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9">
       <c r="A235" s="1" t="s">
         <v>1347</v>
       </c>
@@ -11501,10 +11492,10 @@
         <v>1349</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>1350</v>
@@ -11513,7 +11504,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9">
       <c r="A236" s="1" t="s">
         <v>1352</v>
       </c>
@@ -11530,7 +11521,7 @@
         <v>1355</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>1356</v>
@@ -11542,7 +11533,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9">
       <c r="A237" s="1" t="s">
         <v>1358</v>
       </c>
@@ -11562,7 +11553,7 @@
         <v>1362</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>1039</v>
@@ -11571,12 +11562,12 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9">
       <c r="A238" s="1" t="s">
         <v>1364</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>1365</v>
@@ -11588,19 +11579,19 @@
         <v>1367</v>
       </c>
       <c r="F238" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G238" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G238" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="H238" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9">
       <c r="A239" s="1" t="s">
         <v>1369</v>
       </c>
@@ -11617,7 +11608,7 @@
         <v>1372</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>1373</v>
@@ -11629,7 +11620,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9">
       <c r="A240" s="1" t="s">
         <v>1375</v>
       </c>
@@ -11646,10 +11637,10 @@
         <v>1377</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>1378</v>
@@ -11658,7 +11649,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9">
       <c r="A241" s="1" t="s">
         <v>1380</v>
       </c>
@@ -11678,7 +11669,7 @@
         <v>273</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>641</v>
@@ -11687,7 +11678,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9">
       <c r="A242" s="1" t="s">
         <v>1385</v>
       </c>
@@ -11704,7 +11695,7 @@
         <v>1388</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>23</v>
@@ -11716,7 +11707,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9">
       <c r="A243" s="1" t="s">
         <v>1390</v>
       </c>
@@ -11727,7 +11718,7 @@
         <v>1391</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>1392</v>
@@ -11736,7 +11727,7 @@
         <v>822</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>1393</v>
@@ -11745,7 +11736,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9">
       <c r="A244" s="1" t="s">
         <v>1395</v>
       </c>
@@ -11774,7 +11765,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9">
       <c r="A245" s="1" t="s">
         <v>1401</v>
       </c>
@@ -11791,19 +11782,19 @@
         <v>1404</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>1405</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9">
       <c r="A246" s="1" t="s">
         <v>1407</v>
       </c>
@@ -11814,16 +11805,16 @@
         <v>1408</v>
       </c>
       <c r="D246" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E246" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E246" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="F246" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>1409</v>
@@ -11832,7 +11823,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9">
       <c r="A247" s="1" t="s">
         <v>1411</v>
       </c>
@@ -11852,7 +11843,7 @@
         <v>661</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H247" s="1" t="s">
         <v>1415</v>
@@ -11861,7 +11852,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9">
       <c r="A248" s="1" t="s">
         <v>1417</v>
       </c>
@@ -11881,7 +11872,7 @@
         <v>822</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>1421</v>
@@ -11890,7 +11881,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9">
       <c r="A249" s="1" t="s">
         <v>1423</v>
       </c>
@@ -11907,19 +11898,19 @@
         <v>1426</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9">
       <c r="A250" s="1" t="s">
         <v>1428</v>
       </c>
@@ -11948,7 +11939,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9">
       <c r="A251" s="1" t="s">
         <v>1433</v>
       </c>
@@ -11968,18 +11959,17 @@
         <v>273</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>1437</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>